--- a/Data/ageism_survey_KK.xlsx
+++ b/Data/ageism_survey_KK.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76764D2C-00FD-4C57-8F8A-35620F23406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BF108-D13A-48C5-A451-91AF7E6A089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-90" windowWidth="19380" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="3" r:id="rId1"/>
     <sheet name="GT_Trend" sheetId="1" r:id="rId2"/>
     <sheet name="GT_Trend_Country" sheetId="2" r:id="rId3"/>
     <sheet name="GT_Trend_Temp" sheetId="4" r:id="rId4"/>
+    <sheet name="Category" sheetId="5" r:id="rId5"/>
+    <sheet name="Keyword" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +222,477 @@
   </si>
   <si>
     <t>저출산, 고령화 문제, 인구 고령화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통</t>
+  </si>
+  <si>
+    <t>자원</t>
+  </si>
+  <si>
+    <t>자동차</t>
+  </si>
+  <si>
+    <t>무역</t>
+  </si>
+  <si>
+    <t>증권_증시</t>
+  </si>
+  <si>
+    <t>서비스_쇼핑</t>
+  </si>
+  <si>
+    <t>산업_기업</t>
+  </si>
+  <si>
+    <t>부동산</t>
+  </si>
+  <si>
+    <t>국제경제</t>
+  </si>
+  <si>
+    <t>경제일반</t>
+  </si>
+  <si>
+    <t>금융_재테크</t>
+  </si>
+  <si>
+    <t>외환</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>취업_창업</t>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건_사고</t>
+  </si>
+  <si>
+    <t>장애인</t>
+  </si>
+  <si>
+    <t>의료_건강</t>
+  </si>
+  <si>
+    <t>사회일반</t>
+  </si>
+  <si>
+    <t>환경</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>교육_시험</t>
+  </si>
+  <si>
+    <t>노동_복지</t>
+  </si>
+  <si>
+    <t>미디어</t>
+  </si>
+  <si>
+    <t>날씨</t>
+  </si>
+  <si>
+    <t>문화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시_공연</t>
+  </si>
+  <si>
+    <t>학술_문화재</t>
+  </si>
+  <si>
+    <t>미술_건축</t>
+  </si>
+  <si>
+    <t>생활</t>
+  </si>
+  <si>
+    <t>문화일반</t>
+  </si>
+  <si>
+    <t>음악</t>
+  </si>
+  <si>
+    <t>요리_여행</t>
+  </si>
+  <si>
+    <t>출판</t>
+  </si>
+  <si>
+    <t>방송_연예</t>
+  </si>
+  <si>
+    <t>종교</t>
+  </si>
+  <si>
+    <t>영화</t>
+  </si>
+  <si>
+    <t>국제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유럽_EU</t>
+  </si>
+  <si>
+    <t>국제일반</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>미국_북미</t>
+  </si>
+  <si>
+    <t>중남미</t>
+  </si>
+  <si>
+    <t>아시아</t>
+  </si>
+  <si>
+    <t>중동_아프리카</t>
+  </si>
+  <si>
+    <t>KBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YTN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경향신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한겨례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국일보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머니투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이낸셜뉴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤럴드경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털타임즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자신문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언론사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국일간지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제일간지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제검색어</t>
+  </si>
+  <si>
+    <t>고령화</t>
+  </si>
+  <si>
+    <t>노인부양</t>
+  </si>
+  <si>
+    <t>노인+부양</t>
+  </si>
+  <si>
+    <t>세대갈등</t>
+  </si>
+  <si>
+    <t>세대+갈등</t>
+  </si>
+  <si>
+    <t>의료</t>
+  </si>
+  <si>
+    <t>노인+의료</t>
+  </si>
+  <si>
+    <t>경제적자립</t>
+  </si>
+  <si>
+    <t>노인+경제적+자립</t>
+  </si>
+  <si>
+    <t>노인빈곤</t>
+  </si>
+  <si>
+    <t>노인+빈곤</t>
+  </si>
+  <si>
+    <t>사회보장제도</t>
+  </si>
+  <si>
+    <t>노인+사회보장</t>
+  </si>
+  <si>
+    <t>우울증</t>
+  </si>
+  <si>
+    <t>노인+우울증</t>
+  </si>
+  <si>
+    <t>망각</t>
+  </si>
+  <si>
+    <t>독거노인</t>
+  </si>
+  <si>
+    <t>노화</t>
+  </si>
+  <si>
+    <t>소회</t>
+  </si>
+  <si>
+    <t>고령사회</t>
+  </si>
+  <si>
+    <t>주택문제</t>
+  </si>
+  <si>
+    <t>노인+주택+문제</t>
+  </si>
+  <si>
+    <t>노년재취업</t>
+  </si>
+  <si>
+    <t>재취업</t>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>세대+가족</t>
+  </si>
+  <si>
+    <t>노인+가족</t>
+  </si>
+  <si>
+    <t>안락사</t>
+  </si>
+  <si>
+    <t>사고</t>
+  </si>
+  <si>
+    <t>노인+사고</t>
+  </si>
+  <si>
+    <t>건강</t>
+  </si>
+  <si>
+    <t>노인+건강</t>
+  </si>
+  <si>
+    <t>복지시설</t>
+  </si>
+  <si>
+    <t>질병</t>
+  </si>
+  <si>
+    <t>노인+질병</t>
+  </si>
+  <si>
+    <t>은퇴연령</t>
+  </si>
+  <si>
+    <t>은퇴+연령</t>
+  </si>
+  <si>
+    <t>노인대상범죄</t>
+  </si>
+  <si>
+    <t>노인대상+범죄</t>
+  </si>
+  <si>
+    <t>노인+복지</t>
+  </si>
+  <si>
+    <t>노후</t>
+  </si>
+  <si>
+    <t>알츠하이머</t>
+  </si>
+  <si>
+    <t>혐오</t>
+  </si>
+  <si>
+    <t>노인+혐오</t>
+  </si>
+  <si>
+    <t>돌봄서비스</t>
+  </si>
+  <si>
+    <t>봉사</t>
+  </si>
+  <si>
+    <t>노인+봉사</t>
+  </si>
+  <si>
+    <t>부모님</t>
+  </si>
+  <si>
+    <t>노인+부모님</t>
+  </si>
+  <si>
+    <t>100세시대</t>
+  </si>
+  <si>
+    <t>100세</t>
+  </si>
+  <si>
+    <t>파킨슨</t>
+  </si>
+  <si>
+    <t>연금</t>
+  </si>
+  <si>
+    <t>노인+연금</t>
+  </si>
+  <si>
+    <t>거주환경</t>
+  </si>
+  <si>
+    <t>노인문화지원</t>
+  </si>
+  <si>
+    <t>문화지원</t>
+  </si>
+  <si>
+    <t>실버산업</t>
+  </si>
+  <si>
+    <t>치매</t>
+  </si>
+  <si>
+    <t>연령통합사회</t>
+  </si>
+  <si>
+    <t>연령+통합</t>
+  </si>
+  <si>
+    <t>키워드분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,13 +715,67 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -278,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -286,10 +813,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3290,7 +3841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A950B915-EF80-43B6-B164-5F0C09A5DED2}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3305,590 +3856,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>100</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>72</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>73</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>63</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>60</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>38</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>58</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>37</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>17</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>14</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>9</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>7</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>100</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>100</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3902,4 +4453,819 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF247F07-BBCA-4941-B581-F407B5168A25}">
+  <dimension ref="B2:AC6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="2"/>
+    <col min="18" max="18" width="11.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="R5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="R2:AC2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB2584-F403-41F3-B165-C9977CAD577E}">
+  <dimension ref="B3:H23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.75" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>23</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>27</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <v>32</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>33</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>34</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>35</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
+        <v>36</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <v>37</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
+        <v>38</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
+        <v>39</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/ageism_survey_KK.xlsx
+++ b/Data/ageism_survey_KK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BF108-D13A-48C5-A451-91AF7E6A089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DE8B55-2388-43C4-8927-DA1BC73DF7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="GT_Trend_Temp" sheetId="4" r:id="rId4"/>
     <sheet name="Category" sheetId="5" r:id="rId5"/>
     <sheet name="Keyword" sheetId="6" r:id="rId6"/>
+    <sheet name="TextMining" sheetId="7" r:id="rId7"/>
+    <sheet name="Sentiment" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="249">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +695,190 @@
   </si>
   <si>
     <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체명 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 단어에 이어지는 단어는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장에서 각 단어마다 알맞은 레이블(인물,조직,장소 등) 붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문맥과 질문에 올바른 대답하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈칸 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어들 사이의 빈칸에 알맞은 단어 붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서를 요약하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장에 알맞은 레이블(강성,태도,카테고리 등) 붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 언어에서 다른 언어로 번역하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+건강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+복지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+부양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+빈곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+사고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+주택+문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+혐오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봄서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복지시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세대+갈등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안락사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연령+통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은퇴+연령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재취업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인+봉사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독거노인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세대+가족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알츠하이머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파킨슨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +943,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -778,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -801,11 +1013,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,21 +1064,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3856,16 +4107,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -4338,16 +4589,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
@@ -4500,36 +4751,36 @@
       <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
@@ -4817,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB2584-F403-41F3-B165-C9977CAD577E}">
   <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4833,439 +5084,651 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>22</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>24</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>27</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>28</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>29</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>30</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>31</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>32</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>33</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>34</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <v>35</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <v>36</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <v>37</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
         <v>38</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
         <v>39</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF0FC2D-AF2A-4334-B721-365ED7CC31C1}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2338181B-1314-4671-83BA-35E53795EEF3}">
+  <dimension ref="B2:L4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/ageism_survey_KK.xlsx
+++ b/Data/ageism_survey_KK.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DE8B55-2388-43C4-8927-DA1BC73DF7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C199AA49-1DDF-4C1B-96AB-1ABBA96AB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="3950" windowWidth="28800" windowHeight="15830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="3" r:id="rId1"/>
@@ -27,13 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="250">
   <si>
     <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ageism</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -879,6 +875,14 @@
   </si>
   <si>
     <t>파킨슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,6 +1080,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,10 +1096,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1422,38 +1426,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1466,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1477,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3217,869 +3221,869 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4107,415 +4111,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3">
         <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3">
         <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3">
         <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3">
         <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3">
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3">
         <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3">
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -4523,13 +4527,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -4537,13 +4541,13 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -4551,13 +4555,13 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -4565,13 +4569,13 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -4579,105 +4583,105 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3">
         <v>100</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -4685,13 +4689,13 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4749,102 +4753,102 @@
   <sheetData>
     <row r="2" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="R3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -4855,145 +4859,145 @@
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="R4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="R5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -5001,34 +5005,34 @@
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -5036,13 +5040,13 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="R6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -5085,23 +5089,23 @@
   <sheetData>
     <row r="3" spans="2:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
@@ -5109,20 +5113,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
         <v>21</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
@@ -5130,20 +5134,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
         <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
@@ -5151,20 +5155,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
@@ -5172,20 +5176,20 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
         <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
@@ -5193,20 +5197,20 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
         <v>25</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
@@ -5214,20 +5218,20 @@
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
@@ -5235,20 +5239,20 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
         <v>27</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
@@ -5256,20 +5260,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
         <v>28</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
@@ -5277,20 +5281,20 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
         <v>29</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
@@ -5298,20 +5302,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
         <v>30</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
@@ -5319,20 +5323,20 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
         <v>31</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
@@ -5340,20 +5344,20 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9">
         <v>32</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
@@ -5361,20 +5365,20 @@
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9">
         <v>33</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
@@ -5382,20 +5386,20 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9">
         <v>34</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
@@ -5403,20 +5407,20 @@
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9">
         <v>35</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
@@ -5424,20 +5428,20 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9">
         <v>36</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
@@ -5445,20 +5449,20 @@
         <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9">
         <v>37</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
@@ -5466,20 +5470,20 @@
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9">
         <v>38</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
@@ -5487,20 +5491,20 @@
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9">
         <v>39</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
@@ -5508,10 +5512,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -5537,66 +5541,66 @@
   <sheetData>
     <row r="2" spans="2:3" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5609,7 +5613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2338181B-1314-4671-83BA-35E53795EEF3}">
   <dimension ref="B2:L4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -5625,104 +5629,104 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L3" s="16" t="s">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
